--- a/config/plotting_config_and_timeslices.xlsx
+++ b/config/plotting_config_and_timeslices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC935AC-6BFD-4CEB-9459-97C5A9004227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242ACB64-B26B-4817-9199-3D05FFFA9179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,6 +695,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1010,10 +1013,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1153,7 +1159,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,7 +1581,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/config/plotting_config_and_timeslices.xlsx
+++ b/config/plotting_config_and_timeslices.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242ACB64-B26B-4817-9199-3D05FFFA9179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000DC78-1EA1-49A4-9FB8-2A3930DED42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TECHNOLOGY" sheetId="1" r:id="rId1"/>
-    <sheet name="plotting_name_to_color" sheetId="2" r:id="rId2"/>
-    <sheet name="timeslices" sheetId="4" r:id="rId3"/>
-    <sheet name="EMISSION" sheetId="3" r:id="rId4"/>
+    <sheet name="FUEL" sheetId="1" r:id="rId1"/>
+    <sheet name="POWERPLANT" sheetId="5" r:id="rId2"/>
+    <sheet name="plotting_name_to_color" sheetId="2" r:id="rId3"/>
+    <sheet name="timeslices" sheetId="4" r:id="rId4"/>
+    <sheet name="EMISSION" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>POW_Coal_PP</t>
   </si>
@@ -690,13 +691,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -709,7 +712,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -717,23 +720,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -741,63 +744,63 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -805,201 +808,17 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1009,10 +828,220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC71A03-AE6D-4049-B24E-310B3F034CAE}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA86D8A-3A03-4472-B238-62995243CCDB}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735169C8-9811-4ABE-A422-2C0D0CA34E87}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -1576,15 +1605,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873EB18-23BE-4A8F-8810-A9B73B0B6195}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/config/plotting_config_and_timeslices.xlsx
+++ b/config/plotting_config_and_timeslices.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000DC78-1EA1-49A4-9FB8-2A3930DED42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A309E3BF-36A0-432D-B12F-87EB4E8EC873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FUEL" sheetId="1" r:id="rId1"/>
+    <sheet name="INPUT_FUEL" sheetId="1" r:id="rId1"/>
     <sheet name="POWERPLANT" sheetId="5" r:id="rId2"/>
     <sheet name="plotting_name_to_color" sheetId="2" r:id="rId3"/>
     <sheet name="timeslices" sheetId="4" r:id="rId4"/>
@@ -426,6 +426,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82785BF2-0CB8-F2B2-5B9A-09AB9117A434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1381125"/>
+          <a:ext cx="5543550" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Not the same as the FUEL variable in Osemosys input</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE96D83-A72A-4029-910B-1F8A37A3A5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="1628775"/>
+          <a:ext cx="5543550" cy="2463800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Not used currently because emissions time series uses INPUT_FUEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sheet</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,7 +849,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,6 +979,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -831,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC71A03-AE6D-4049-B24E-310B3F034CAE}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1042,7 +1198,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873EB18-23BE-4A8F-8810-A9B73B0B6195}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1700,5 +1856,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>